--- a/public/outputFiles/algorithms-61 a-spring 2019.xlsx
+++ b/public/outputFiles/algorithms-61 a-spring 2019.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,6 +402,12 @@
       <c r="G1" t="str">
         <v>2021-06-03</v>
       </c>
+      <c r="H1" t="str">
+        <v>2021-06-05</v>
+      </c>
+      <c r="I1" t="str">
+        <v>2021-06-07</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -417,13 +423,19 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -437,21 +449,27 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/outputFiles/algorithms-61 a-spring 2019.xlsx
+++ b/public/outputFiles/algorithms-61 a-spring 2019.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,39 +408,57 @@
       <c r="I1" t="str">
         <v>2021-06-07</v>
       </c>
+      <c r="J1" t="str">
+        <v>2021-06-20</v>
+      </c>
+      <c r="K1" t="str">
+        <v>2021-08-09</v>
+      </c>
+      <c r="L1" t="str">
+        <v>2021-08-09</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>m1</v>
+        <v>dev</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>dev</v>
+        <v>CSE 06107303</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -449,10 +467,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -461,15 +479,24 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/outputFiles/algorithms-61 a-spring 2019.xlsx
+++ b/public/outputFiles/algorithms-61 a-spring 2019.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,6 +417,12 @@
       <c r="L1" t="str">
         <v>2021-08-09</v>
       </c>
+      <c r="M1" t="str">
+        <v>2021-08-19</v>
+      </c>
+      <c r="N1" t="str">
+        <v>2021-09-06</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -455,6 +461,12 @@
       <c r="L2">
         <v>0</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -493,10 +505,16 @@
       <c r="L3">
         <v>0</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/outputFiles/algorithms-61 a-spring 2019.xlsx
+++ b/public/outputFiles/algorithms-61 a-spring 2019.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,69 +385,84 @@
         <v>Id \ Date</v>
       </c>
       <c r="B1" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="C1" t="str">
         <v>2021-05-02</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>2021-05-07</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>2021-05-22</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>2021-05-29</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>2021-05-31</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>2021-06-03</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>2021-06-05</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>2021-06-07</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>2021-06-20</v>
-      </c>
-      <c r="K1" t="str">
-        <v>2021-08-09</v>
       </c>
       <c r="L1" t="str">
         <v>2021-08-09</v>
       </c>
       <c r="M1" t="str">
+        <v>2021-08-09</v>
+      </c>
+      <c r="N1" t="str">
         <v>2021-08-19</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>2021-09-06</v>
+      </c>
+      <c r="P1" t="str">
+        <v>2021-09-08</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>2021-09-10</v>
+      </c>
+      <c r="R1" t="str">
+        <v>2021-09-10</v>
+      </c>
+      <c r="S1" t="str">
+        <v>2021-09-12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>dev</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="str">
+        <v>52.94 %</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -456,65 +471,95 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>CSE 06107303</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="str">
+        <v>41.18 %</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S3"/>
   </ignoredErrors>
 </worksheet>
 </file>